--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.374</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.572</v>
+        <v>16.3</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.329</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.426</v>
+        <v>14.988</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.315</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.354</v>
+        <v>9.342000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.87791223972656</v>
+        <v>0.004622764828809522</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.05357875727075</v>
+        <v>14.22036017125661</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.80461187502674</v>
+        <v>19.87890298456928</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.60154763339343</v>
+        <v>-3.945410355888907</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.03859396290328</v>
+        <v>14.02990517996365</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.45971882430158</v>
+        <v>18.723610069791</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.3303271387551</v>
+        <v>3.22413735383077</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.08302355260204</v>
+        <v>25.92251700291491</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.55935615436914</v>
+        <v>32.465482290696</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.37689431776556</v>
+        <v>27.84445431506097</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39.36558396301338</v>
+        <v>31.77934481473179</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.24950764515327</v>
+        <v>35.16337924498716</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17.78437744054165</v>
+        <v>4.795256246237416</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35.3521134005074</v>
+        <v>18.03898798444548</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.16814290349484</v>
+        <v>28.44229929137488</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.24921959555699</v>
+        <v>9.697338288049053</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.66732597331478</v>
+        <v>28.43629674631025</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.50111298603477</v>
+        <v>38.82871267874408</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.47373736288937</v>
+        <v>2.263340026615175</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.23982901494112</v>
+        <v>18.06615337532596</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.73868604373619</v>
+        <v>29.7615672686555</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20.32228899672708</v>
+        <v>6.679587040420129</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.34893805445871</v>
+        <v>33.92317645595806</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36.89034864371393</v>
+        <v>46.00417830335089</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.44680963939902</v>
+        <v>35.66422701740819</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>41.70239658799741</v>
+        <v>46.52383511297282</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>45.74425323588206</v>
+        <v>56.76701308837568</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.02299420694387</v>
+        <v>10.38496680513646</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38.05627630323455</v>
+        <v>42.21322943728762</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>44.93125598983986</v>
+        <v>49.88943491272394</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22.25444164337001</v>
+        <v>10.80239331048205</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.18343591160879</v>
+        <v>35.29190938118906</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41.22095497531252</v>
+        <v>47.02994866014041</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>18.45167342130853</v>
+        <v>3.90697318605627</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>33.76333820977601</v>
+        <v>26.16999824515712</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>39.50389174415951</v>
+        <v>36.70132106125754</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.1997177110519</v>
+        <v>12.09159463811404</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.70148740939516</v>
+        <v>45.44607550941031</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>44.43755194140455</v>
+        <v>59.23489650455749</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.42488741130717</v>
+        <v>57.74964967553589</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.87430390545894</v>
+        <v>68.72250352172925</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>53.95955492435635</v>
+        <v>79.43180589518705</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.10837168733971</v>
+        <v>16.54144524964652</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>45.85294446179331</v>
+        <v>56.21351320831842</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53.02652387620337</v>
+        <v>67.8207507339871</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16.9062916756466</v>
+        <v>3.770856316926944</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.73059245664716</v>
+        <v>32.6633651620754</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.46992289107154</v>
+        <v>39.52961289769301</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>13.93921494938488</v>
+        <v>4.834114996148957</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.10956430684578</v>
+        <v>36.83618515537112</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.5255635851787</v>
+        <v>42.12947367969572</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21.92793249938992</v>
+        <v>16.15606678350468</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>34.2920560557654</v>
+        <v>53.61936358346632</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38.76032690977755</v>
+        <v>61.58471367308288</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.08888004076528</v>
+        <v>53.28299789314064</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.30239160372277</v>
+        <v>61.35057775671153</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47.15687370519612</v>
+        <v>64.48632066805922</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.5741216085295</v>
+        <v>11.23501874189588</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>39.04913913574954</v>
+        <v>41.15276750594661</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45.85197459051994</v>
+        <v>52.10199645045248</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>18.99948382370567</v>
+        <v>3.811560191640492</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.04447513192462</v>
+        <v>34.28755892367923</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37.8445652197679</v>
+        <v>41.56934138115923</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>15.53780860089702</v>
+        <v>1.127095099036335</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.01343510107511</v>
+        <v>27.76143688962506</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.48059976557559</v>
+        <v>36.64032363151566</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>23.62226544990424</v>
+        <v>8.835736716941875</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.23994591729034</v>
+        <v>48.03069839545155</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>40.75140862969954</v>
+        <v>56.9097342015977</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.85888610044601</v>
+        <v>46.71282947422323</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>45.32746350537593</v>
+        <v>59.95048066077234</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>49.31619841689535</v>
+        <v>66.98907626290324</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22.5447978295113</v>
+        <v>9.924790476039847</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>41.45169942358733</v>
+        <v>52.05677563834317</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>48.28629279717291</v>
+        <v>59.41437882523499</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.55555135294673</v>
+        <v>3.399097979556007</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.0659230500336</v>
+        <v>40.48346503889688</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.10227200653621</v>
+        <v>49.69072098621041</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>22.09268082826528</v>
+        <v>0.6152177463393542</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>38.06313542299009</v>
+        <v>34.46944531585767</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.80648427844412</v>
+        <v>42.58292283800465</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.11575059267681</v>
+        <v>12.85900141245086</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.16581712215159</v>
+        <v>58.92251210480394</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>48.90088596101069</v>
+        <v>70.17297251194582</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>46.44679182862222</v>
+        <v>65.87578813420157</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>54.0763926359119</v>
+        <v>80.0899301189262</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>58.14357243650802</v>
+        <v>88.25462471273377</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>30.26297762971745</v>
+        <v>12.16954862090261</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>49.82381833714661</v>
+        <v>65.74128048100349</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.99909605859739</v>
+        <v>76.17697673981337</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15.85926559575825</v>
+        <v>6.919532866773409</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.67516721737483</v>
+        <v>31.5856526213967</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.41696088606497</v>
+        <v>35.85647523403954</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>12.78991098110178</v>
+        <v>4.355568138655881</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.94492811450057</v>
+        <v>32.7444745885894</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.3651546491874</v>
+        <v>35.16550774692645</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20.77192133155754</v>
+        <v>16.2271664807018</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.12426525699365</v>
+        <v>49.41670690174658</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>37.59452280147362</v>
+        <v>54.83322028636656</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.99263285606683</v>
+        <v>51.77374544054134</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.20367491562486</v>
+        <v>57.88095899442204</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>46.05608693628547</v>
+        <v>58.65963002548413</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.50961389645001</v>
+        <v>12.14033795560281</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.95993014669106</v>
+        <v>37.09421061931603</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>44.77440832038911</v>
+        <v>45.10681536190004</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.1156718407984</v>
+        <v>13.1631914916703</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.15531184801797</v>
+        <v>41.8629403501307</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.95626641823998</v>
+        <v>46.22447623610055</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14.55488143741078</v>
+        <v>8.045814129719039</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30.018589058334</v>
+        <v>33.83940104536551</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.48826921395745</v>
+        <v>39.31865212446679</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>22.64107973305565</v>
+        <v>17.34956235950309</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>35.24994142754846</v>
+        <v>54.74361004300054</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.76198221763003</v>
+        <v>60.74383979401429</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.92975573478185</v>
+        <v>54.94955299626146</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>44.39835558658997</v>
+        <v>65.94877976391318</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>48.38333106244414</v>
+        <v>70.01621925912866</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.64413822790767</v>
+        <v>18.98475877346896</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>40.53052493768168</v>
+        <v>57.69110553583215</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.3746292999556</v>
+        <v>62.60593464537449</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.66421665788469</v>
+        <v>10.67371385163424</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>39.16763684113451</v>
+        <v>46.07775424761284</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.2051136675972</v>
+        <v>52.35935521828381</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>21.10289534237716</v>
+        <v>4.88890105691323</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>37.0603969470499</v>
+        <v>38.12356299831601</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.8064504849816</v>
+        <v>42.73738170836749</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>30.12112785605966</v>
+        <v>18.92430118844079</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43.1612058691602</v>
+        <v>63.24859840150343</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47.89681945028698</v>
+        <v>71.62814098364784</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>45.50407709224534</v>
+        <v>72.43596195795205</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>53.13043568204987</v>
+        <v>84.30918359652689</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>57.19727687166863</v>
+        <v>89.74332246403718</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.34530087280901</v>
+        <v>19.09946571700257</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.88469797982818</v>
+        <v>69.58328790972719</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.06954391229712</v>
+        <v>77.6086547942637</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6.772421500134833</v>
+        <v>5.337582847817027</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.74696206037598</v>
+        <v>16.74472413601116</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.40740038875155</v>
+        <v>20.89793959347204</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3.049735404879002</v>
+        <v>0.6472102405956903</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.26525672960474</v>
+        <v>15.60809090800852</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.58241903480754</v>
+        <v>19.10900500270106</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10.38566945417199</v>
+        <v>7.272025652971731</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>21.95411444786861</v>
+        <v>27.13347480270479</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.3438631224569</v>
+        <v>32.09193563428687</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.54141905339363</v>
+        <v>27.70952705942144</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.40797668989955</v>
+        <v>30.46328012905031</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.25246213757293</v>
+        <v>33.75715999727389</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>10.35060572181257</v>
+        <v>13.95356826084785</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>27.62894122951243</v>
+        <v>23.150705254092</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.31655003089193</v>
+        <v>31.70295110586563</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.189887275306923</v>
+        <v>10.96200857454932</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.40628006563225</v>
+        <v>25.71137662435728</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>27.14680391626641</v>
+        <v>33.67437831127761</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4.981552847351701</v>
+        <v>3.695762911663019</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>19.52425300993503</v>
+        <v>15.5109650469538</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>24.91701629417038</v>
+        <v>25.18626563402791</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>24.27848389614991</v>
+        <v>29.57754516106462</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.73122931368636</v>
+        <v>39.09981008165423</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.67562123913974</v>
+        <v>29.61788174741818</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.80859968540287</v>
+        <v>39.10745872241997</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.80620108336149</v>
+        <v>48.35746377232881</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>12.64652864851568</v>
+        <v>13.44328463374937</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.38745748960613</v>
+        <v>39.51113822542244</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>37.13202560359947</v>
+        <v>44.62238597520889</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>15.61773437540334</v>
+        <v>14.26859788367841</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.34575955144052</v>
+        <v>34.46046624455199</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.29549828964638</v>
+        <v>44.01377940218931</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>11.38345865202422</v>
+        <v>4.75722110783467</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.47270138219013</v>
+        <v>22.6925622062173</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.11268222140889</v>
+        <v>31.58239431155152</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.76448888915589</v>
+        <v>12.0499710299765</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>32.08119263383725</v>
+        <v>41.08320374700304</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.73349353591344</v>
+        <v>52.55445215776439</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.07928471657274</v>
+        <v>51.02022712232033</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>42.40491466627749</v>
+        <v>60.26070919056831</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>46.44933858359823</v>
+        <v>70.2766232186413</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>20.14718606706595</v>
+        <v>19.84650593557421</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.60072877847972</v>
+        <v>53.41761223142825</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>45.65087471593604</v>
+        <v>62.33416680971703</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>14.82634140952486</v>
+        <v>5.690563561357747</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.08163381485196</v>
+        <v>26.64790653507486</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>32.78741609243909</v>
+        <v>31.73253373330847</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>11.4680625572981</v>
+        <v>4.199559844711526</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.99768162759599</v>
+        <v>28.61057676915021</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.37111944004167</v>
+        <v>32.69153044084391</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19.24381857251819</v>
+        <v>14.32955188902463</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>31.07495866880725</v>
+        <v>44.05946014614205</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.51199679370424</v>
+        <v>50.02778088714285</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.2170284721052</v>
+        <v>42.83580092277916</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>40.25846095352043</v>
+        <v>48.1319758038486</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.10620538935216</v>
+        <v>50.16275409121777</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>18.56713352778111</v>
+        <v>14.72315181699654</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>36.23309476856223</v>
+        <v>31.88772191303776</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>42.98187935823978</v>
+        <v>40.96899911901077</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17.43837927039584</v>
+        <v>18.77415209793802</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.93832375866479</v>
+        <v>44.2037974391388</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.71917871049119</v>
+        <v>50.71748802110545</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>13.59646105780543</v>
+        <v>12.5508898308562</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.45671546587553</v>
+        <v>35.15317484106949</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.89920241996811</v>
+        <v>42.98296961853759</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.61055549364241</v>
+        <v>54.62949336112939</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>38.10530688520793</v>
+        <v>62.77374182530803</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>35.5564416644354</v>
+        <v>54.3516621711073</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>42.86497585035071</v>
+        <v>67.17450889796214</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>46.86151904067781</v>
+        <v>74.43883154922307</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>21.07131507861832</v>
+        <v>26.91894881524919</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>39.20344935239488</v>
+        <v>63.34428697665847</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>46.00210406507011</v>
+        <v>66.84256899916298</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.33571878619475</v>
+        <v>16.52876254828897</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>37.33637123687312</v>
+        <v>46.00091976021987</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>42.33054771034924</v>
+        <v>54.83213359082308</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>19.46561467957509</v>
+        <v>8.856554167240979</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.86044551511868</v>
+        <v>35.95245661414307</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.55503533187378</v>
+        <v>43.65525638002075</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.26716289175413</v>
+        <v>20.4124496166846</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>40.83944608880279</v>
+        <v>58.96175924496815</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.53784022260473</v>
+        <v>69.80492081877654</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.41759095491996</v>
+        <v>69.69701980082691</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>50.9180514969371</v>
+        <v>81.9706217488323</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>54.96531618199978</v>
+        <v>90.2544368813267</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.05452078044881</v>
+        <v>27.01250505985282</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.88570972697813</v>
+        <v>70.3707264053476</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>53.99646949534934</v>
+        <v>78.36844039257105</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-10.96545206090747</v>
+        <v>-1.084606918546534</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.258630497318507</v>
+        <v>27.40126530236183</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>6.753133894432537</v>
+        <v>32.37036975970244</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-14.87182225876662</v>
+        <v>3.009676845315882</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-0.3658481598819847</v>
+        <v>34.53631345683539</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4.773993838951867</v>
+        <v>37.83990890260583</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-8.475411362562106</v>
+        <v>13.42455384101679</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>3.348454183474537</v>
+        <v>50.39811923736883</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>7.589679470699316</v>
+        <v>56.33337742892702</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>6.744400921683216</v>
+        <v>45.93859432852334</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>13.68565118418869</v>
+        <v>53.03858674139596</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>17.34078841371879</v>
+        <v>54.76097573848826</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-7.339239227927727</v>
+        <v>6.444045422591349</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>10.29150266298815</v>
+        <v>30.48993036008124</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16.74705486211609</v>
+        <v>38.23044257934981</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-8.185444731991133</v>
+        <v>11.01596530091802</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>5.264327884808409</v>
+        <v>46.85415418405398</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>9.81430257373092</v>
+        <v>50.04796179153458</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-12.54115537536835</v>
+        <v>6.426631223592365</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2.272284261610274</v>
+        <v>39.34801516720421</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>7.458156269731802</v>
+        <v>43.65427741155782</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-6.011044662188617</v>
+        <v>18.00755276218244</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.068474149396486</v>
+        <v>62.33919289809423</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>10.34851731209933</v>
+        <v>67.00918267715988</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>9.273262332346007</v>
+        <v>56.58466912550853</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>16.4650212965166</v>
+        <v>71.29499766161929</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>20.24611892586102</v>
+        <v>76.00976774916856</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-4.633455034065882</v>
+        <v>20.43847072146527</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>13.43023092399442</v>
+        <v>65.70122377459211</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>19.91237408638178</v>
+        <v>67.22042042426091</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-1.732375085377733</v>
+        <v>8.565432444487367</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-6.087614105155872</v>
+        <v>1.860191337449457</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>9.202835810781593</v>
+        <v>39.27544958373149</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>14.65102589925672</v>
+        <v>43.22534807379247</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1.337102457610115</v>
+        <v>17.18368416457902</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>13.8334294881887</v>
+        <v>65.87756688206483</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>18.32592488743776</v>
+        <v>73.03355566917503</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>17.63701713597585</v>
+        <v>71.00858493434346</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>24.99271765907963</v>
+        <v>84.50664789460518</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.84456739648313</v>
+        <v>89.77477795417249</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2.900288653378688</v>
+        <v>18.54397869250601</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>21.5957239066369</v>
+        <v>72.73369276036158</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.40196444036212</v>
+        <v>77.48167415710827</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-15.38195880043256</v>
+        <v>-2.505919692150847</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2.395395687974649</v>
+        <v>7.983873697960945</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>2.218782440515469</v>
+        <v>10.73962846395679</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-19.32328194306087</v>
+        <v>-6.321366065775347</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-5.100041449265809</v>
+        <v>8.565834159407197</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.1655508706571496</v>
+        <v>9.819645676406099</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-13.11528035742729</v>
+        <v>0.1547541817001203</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-1.529471823628278</v>
+        <v>18.35223108615459</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>2.815295218106009</v>
+        <v>22.06362413999588</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>2.34379358348</v>
+        <v>24.61056457425002</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>9.136937627020075</v>
+        <v>28.53613808745752</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>12.89315841393782</v>
+        <v>30.07850938265168</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-11.49635935125907</v>
+        <v>0.06082434932692848</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>5.824203896300574</v>
+        <v>11.13206267571863</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>12.46537066661238</v>
+        <v>18.00176433121943</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-13.05854454271604</v>
+        <v>8.91581122957745</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.1528471412130656</v>
+        <v>27.32162202645662</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>4.842824088113467</v>
+        <v>35.42007992309278</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-17.48167111159676</v>
+        <v>3.087727630453307</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-2.949545738834566</v>
+        <v>19.48428114086823</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>2.385375976959494</v>
+        <v>28.4397612041585</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-11.16079174779269</v>
+        <v>9.258318437811495</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.6818535372135486</v>
+        <v>35.51486201320677</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>5.085177534576871</v>
+        <v>45.22658673519796</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>4.357753031243675</v>
+        <v>38.31674803085005</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>11.40470147021585</v>
+        <v>48.64775875797679</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>15.3109362400344</v>
+        <v>55.43743797551947</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-9.303563545946808</v>
+        <v>11.56905621983046</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>8.455332315495966</v>
+        <v>41.52125220160715</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>15.14749399241999</v>
+        <v>48.62201293795803</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-6.32569158281337</v>
+        <v>8.897040388171728</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>7.365062119415647</v>
+        <v>34.73603368105151</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>12.25215938374244</v>
+        <v>43.76428858735501</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-10.7503813724359</v>
+        <v>3.449176729255946</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>4.29320024952446</v>
+        <v>28.24647620060695</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>9.861196610485912</v>
+        <v>35.49616937257107</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-3.522755599020961</v>
+        <v>14.31064697548891</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>8.765479310083364</v>
+        <v>48.26493643947402</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>13.35596946704093</v>
+        <v>59.28958878922299</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>13.01447927520699</v>
+        <v>60.76416310730779</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>20.22946739165832</v>
+        <v>71.48676319875761</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>24.18812616320547</v>
+        <v>78.61957650348742</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-1.524226493644882</v>
+        <v>16.69811231499268</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>16.90511002790167</v>
+        <v>57.66888648412152</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>23.88354443537749</v>
+        <v>67.46251036079295</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-12.69218500174674</v>
+        <v>-5.519260600352386</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>0.3742754019530778</v>
+        <v>6.064913149535931</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>5.026443661286748</v>
+        <v>11.26188176369668</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-16.86718648306094</v>
+        <v>-6.69335114851069</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-2.542913392128646</v>
+        <v>7.853427000371591</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>2.764997734403664</v>
+        <v>12.17451713218661</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-10.34996519994596</v>
+        <v>-2.128573140211998</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1.315514275880815</v>
+        <v>18.07619021199592</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>5.699304360402152</v>
+        <v>24.18939964750722</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>5.042385163287356</v>
+        <v>18.55024208227123</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>11.98312234857861</v>
+        <v>21.94015477910283</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.80107857770973</v>
+        <v>25.34978555321506</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-8.774109925787222</v>
+        <v>-2.217524126737082</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>8.646747983533295</v>
+        <v>6.93180617462717</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.31956130308361</v>
+        <v>15.22081665040356</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-10.04362576358056</v>
+        <v>-2.394300656089502</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>3.259745015784169</v>
+        <v>11.45887621343762</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>7.986205336396587</v>
+        <v>19.52031033108985</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-14.695032400724</v>
+        <v>-6.191170684859117</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-0.05002832996340345</v>
+        <v>4.37879100108141</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>5.326758756819281</v>
+        <v>13.80926959281616</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-8.046488148355586</v>
+        <v>-4.882633639492397</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>3.886094073569375</v>
+        <v>17.56415932123907</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>8.327270757798338</v>
+        <v>27.28563640251873</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>7.413146636673154</v>
+        <v>17.83712387010443</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>14.61575810820887</v>
+        <v>27.94765675966985</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>18.58027445158387</v>
+        <v>37.63682936182187</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-6.243064613106689</v>
+        <v>-2.084119342915912</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.63100914725718</v>
+        <v>22.84969642560886</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>18.35339292561492</v>
+        <v>27.39203997647095</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-3.467041151843553</v>
+        <v>-2.397831153012465</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.32536000240767</v>
+        <v>16.61192151139244</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>15.26139856328371</v>
+        <v>27.70464540721858</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-8.111469276097019</v>
+        <v>-6.705967860883231</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>7.055584339340825</v>
+        <v>9.454655283866295</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>12.67999525501966</v>
+        <v>19.62961267357102</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.5530998224768595</v>
+        <v>-1.596811921560274</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>11.83462327029302</v>
+        <v>26.3680624351662</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.47585546298907</v>
+        <v>39.48753679276616</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>15.9461526275998</v>
+        <v>37.43718613298753</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>23.33638742356455</v>
+        <v>47.38939492270985</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>27.3496928839293</v>
+        <v>58.77356288145924</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1.413285609520806</v>
+        <v>1.239879327868948</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.969734774797</v>
+        <v>34.17714444744779</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>26.99883255657952</v>
+        <v>43.6283221666972</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>4.493185419888164</v>
+        <v>3.130730468900708</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>18.22648260880332</v>
+        <v>36.39263327250941</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.86895801082881</v>
+        <v>42.22427271655539</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>1.550629563071581</v>
+        <v>6.958823023678276</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.60976903598938</v>
+        <v>45.01495675760612</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.91716972448626</v>
+        <v>48.80951946118116</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>8.813201218819934</v>
+        <v>19.82934779798428</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.10084424180281</v>
+        <v>61.57260372135185</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.47999991995255</v>
+        <v>68.30152316190879</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>23.73643773071525</v>
+        <v>62.46592187842669</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>30.92069065018722</v>
+        <v>70.13136116492893</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.6530433537152</v>
+        <v>72.62678670179702</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>8.786812814320967</v>
+        <v>15.88812848846021</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.13004170917171</v>
+        <v>46.73376041314371</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>33.81582625015645</v>
+        <v>59.73444877157636</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>6.593450178032484</v>
+        <v>1.112535965534926</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>20.53659537182432</v>
+        <v>36.63967046324226</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.23459470387566</v>
+        <v>40.70628717608207</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>3.150486094076179</v>
+        <v>-2.178238592964107</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>18.50198291968352</v>
+        <v>31.00183200858738</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.8542658076309</v>
+        <v>35.95292109164785</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>10.51754910313966</v>
+        <v>8.080689633306553</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>23.04791300875424</v>
+        <v>52.26601975544763</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.46536521130297</v>
+        <v>57.79805630422156</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.51212407669097</v>
+        <v>50.4201479189213</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.94204019066019</v>
+        <v>62.88550314705537</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.80810097068078</v>
+        <v>68.05384604408727</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.77395209854171</v>
+        <v>11.68234016316735</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.53266777889888</v>
+        <v>56.43984846293564</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.24193334981445</v>
+        <v>61.48533265495788</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>12.65919309319766</v>
+        <v>-0.5452632521250074</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.04728796592055</v>
+        <v>40.52252866028215</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.96484637871829</v>
+        <v>46.51188698120302</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>9.215826166230457</v>
+        <v>-2.589297871041403</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.04029956443129</v>
+        <v>36.72298968247367</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.65156419025131</v>
+        <v>40.88431791124692</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>17.4506307417285</v>
+        <v>11.34023595306024</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>30.39433887040765</v>
+        <v>61.30798220570501</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.0204194866637</v>
+        <v>69.20989526675082</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>33.49458436952219</v>
+        <v>69.65078271959604</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>41.08397267481075</v>
+        <v>82.19107411618764</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.02136154662261</v>
+        <v>87.23090957984762</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.92487300778121</v>
+        <v>13.03116991786768</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>37.31122047259982</v>
+        <v>68.60885478961838</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>44.33733562065179</v>
+        <v>76.60291396876714</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-9.572967544558203</v>
+        <v>-0.09498424736190714</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>3.108604198960592</v>
+        <v>7.727961042859087</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>7.710278218128607</v>
+        <v>12.68204548297003</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-13.34944520426806</v>
+        <v>-5.253518701688712</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>0.5629209147448861</v>
+        <v>4.588931512511673</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>5.812260510219843</v>
+        <v>8.404837394296775</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-7.042957623885378</v>
+        <v>-0.9225042577119567</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>4.283822260027293</v>
+        <v>14.48959722389792</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>8.616543609692826</v>
+        <v>20.61665503838667</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.868574314328043</v>
+        <v>17.73706058546568</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>14.50623333070271</v>
+        <v>20.83672238774761</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>18.25066288155623</v>
+        <v>25.06247117728963</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-5.883994439313533</v>
+        <v>-2.469503485780422</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>11.09314708718345</v>
+        <v>8.798360180841465</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>17.67602125861902</v>
+        <v>14.1666342310749</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-7.507392574849938</v>
+        <v>3.260545034445979</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>5.388899312853304</v>
+        <v>15.09384971106641</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>10.06687923977908</v>
+        <v>27.19409522881958</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-11.751131277596</v>
+        <v>-2.002901386793148</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>2.457032289004978</v>
+        <v>6.173234595705265</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>7.776606644215164</v>
+        <v>19.52805717661213</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-5.356532050609907</v>
+        <v>-0.008962688058431922</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>6.216197679113705</v>
+        <v>19.4439095976146</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>10.6079998376316</v>
+        <v>33.29475025511226</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>9.600437865554781</v>
+        <v>19.69684731582833</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>16.48333383207921</v>
+        <v>28.00453250901488</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>20.36881559789353</v>
+        <v>40.18771695023374</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-3.98021555462379</v>
+        <v>-1.109952213377671</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>13.4158463355498</v>
+        <v>23.00525752341719</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.05330646804781</v>
+        <v>33.03164797478078</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-0.6303076178697253</v>
+        <v>5.800733652960677</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.7229744518943</v>
+        <v>23.95335279224221</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.60294879073946</v>
+        <v>37.90554492475867</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-4.839765070363335</v>
+        <v>0.1883313393238204</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.854566074474491</v>
+        <v>15.35864944909575</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>15.4110374080536</v>
+        <v>28.06307991347645</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>2.474778316939599</v>
+        <v>6.592846443006756</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>14.47233282441006</v>
+        <v>32.64672217907344</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>19.05546853293055</v>
+        <v>48.71584749980741</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.44267542658844</v>
+        <v>40.88684071014814</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.481536669198</v>
+        <v>50.1338229150313</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.42473499499041</v>
+        <v>64.72283989289039</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>4.015031589644593</v>
+        <v>5.993625395668168</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.04736739627444</v>
+        <v>39.46222625006776</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.97940168267578</v>
+        <v>53.47682693479898</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>2.181717618218691</v>
+        <v>-8.238980278446206</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.37973839856798</v>
+        <v>10.06504778511382</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>19.92931992336943</v>
+        <v>14.07020051134703</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-1.606400335445009</v>
+        <v>-11.60277689111143</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.87685296391346</v>
+        <v>9.039192853041341</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>18.07612121190777</v>
+        <v>11.51025128662818</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>5.469272140757624</v>
+        <v>-2.634029523456825</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>17.26677056777817</v>
+        <v>24.03203423400875</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.55494050060009</v>
+        <v>29.21884558049581</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>19.86040602510865</v>
+        <v>24.11302004656705</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>26.75564211295328</v>
+        <v>29.07694018663689</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.48589541764248</v>
+        <v>29.22113264224812</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>5.355150383911187</v>
+        <v>-6.995091487036092</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.96853355575374</v>
+        <v>10.49293352158136</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.49221836829133</v>
+        <v>15.31392412743161</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>4.806270950678794</v>
+        <v>11.62535104063157</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>18.23040196107732</v>
+        <v>37.24483301028572</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>22.83844074579485</v>
+        <v>41.45023914419414</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>0.5713825165644124</v>
+        <v>5.632179554799182</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>15.36274796262001</v>
+        <v>27.84096849897657</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.61206701326306</v>
+        <v>33.3689461938971</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>7.764891351593754</v>
+        <v>14.49625398720813</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>19.81866159111017</v>
+        <v>48.55105363535921</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.1487772769051</v>
+        <v>54.38730219007014</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>22.21460292698998</v>
+        <v>47.53796711910296</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.36349374901589</v>
+        <v>59.12968464971421</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.21759242307783</v>
+        <v>62.4507043318478</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>7.880794685410983</v>
+        <v>16.20185945939511</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.92719737061816</v>
+        <v>51.66180553813173</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.48324567452748</v>
+        <v>54.62289739570558</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>11.65546409999604</v>
+        <v>11.35380407208355</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>25.5322607185621</v>
+        <v>43.22598535266633</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.37345590111759</v>
+        <v>49.5294434302423</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>7.432222808961818</v>
+        <v>2.985059641359964</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>22.70589264378314</v>
+        <v>32.09934883589425</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.22612823786032</v>
+        <v>37.120532603317</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>15.5625128194659</v>
+        <v>16.77665116914753</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.03763715448282</v>
+        <v>57.30682917553693</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>32.58769399204865</v>
+        <v>65.67305665069354</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.04919788170213</v>
+        <v>64.87268918706317</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>38.35243180629401</v>
+        <v>76.84605349967202</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.28698983498128</v>
+        <v>82.26067279650742</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>15.861747500956</v>
+        <v>17.25713873865117</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>34.5451808896571</v>
+        <v>63.76590655337608</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>41.43782234250736</v>
+        <v>69.97190754350052</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>10.30366388040827</v>
+        <v>5.029372122802691</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>23.27017633834939</v>
+        <v>14.10799465281809</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>27.80183769151177</v>
+        <v>17.49086818680928</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>6.849329573480922</v>
+        <v>-0.9247860849996172</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>21.06538324475535</v>
+        <v>11.45052123815389</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>26.23997032201932</v>
+        <v>13.40161382918989</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>14.12390127637008</v>
+        <v>5.757520209331044</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.69792112915513</v>
+        <v>22.74444331793908</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.96377866534846</v>
+        <v>27.24775209277396</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.83822884721086</v>
+        <v>24.98726533096835</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.56204472331709</v>
+        <v>26.98876378435208</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>38.2957193862357</v>
+        <v>29.40510300373441</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.36034748137383</v>
+        <v>5.087275039578556</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.6532562051617</v>
+        <v>13.44441541561765</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.16508658256569</v>
+        <v>18.8424730219082</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>12.27134147500942</v>
+        <v>1.194533688314161</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.45543945132114</v>
+        <v>13.03794032826158</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>30.05343678767268</v>
+        <v>19.05920816747009</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>8.344675587073219</v>
+        <v>-4.160879578668855</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>22.86036329936018</v>
+        <v>4.500837525513505</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.09433658258278</v>
+        <v>11.95747947842036</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>15.70596302724417</v>
+        <v>-1.991560765602916</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>27.52899101661887</v>
+        <v>17.94970453022403</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>31.84467377632117</v>
+        <v>25.57610922839438</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.4964889388642</v>
+        <v>18.84513740929993</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>36.47089886383706</v>
+        <v>24.26933645745966</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>40.33958461933474</v>
+        <v>30.57728083662666</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>15.20257506495394</v>
+        <v>-1.261906813517971</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.91986595059285</v>
+        <v>18.5668611126705</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.47351496980424</v>
+        <v>23.64103502665017</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>19.30585311918602</v>
+        <v>8.329266874976703</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>32.96426852012947</v>
+        <v>29.20734397592225</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.78540688761715</v>
+        <v>35.58292498945552</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>15.36945896392837</v>
+        <v>-0.7943252892491834</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>30.39086702785125</v>
+        <v>17.72197530526705</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.88491030992565</v>
+        <v>22.87983443107995</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>23.68688639291935</v>
+        <v>8.051961161695843</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>35.95078682845161</v>
+        <v>37.31266552149977</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>40.4767413855151</v>
+        <v>45.71557075263595</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>38.51950154874417</v>
+        <v>44.85101211527176</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>45.65060038084822</v>
+        <v>51.22397104188148</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>49.59371043128316</v>
+        <v>58.49810839693184</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>23.33949354642927</v>
+        <v>7.274751172479018</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>41.72150510458289</v>
+        <v>40.15911506971698</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>48.59599222190317</v>
+        <v>46.65614655339011</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-3.119620026149015</v>
+        <v>-0.2462084105457478</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.181756006865342</v>
+        <v>2.778706036397056</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>13.4979005003348</v>
+        <v>3.569664293664658</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-7.239762073700668</v>
+        <v>-4.935219148655836</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.249221630464561</v>
+        <v>0.5221815015646527</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.17529587038079</v>
+        <v>0.3851198193912566</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-0.8958530898119577</v>
+        <v>-2.166893751145992</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.07915388335137</v>
+        <v>8.472599442171328</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.14038807157987</v>
+        <v>10.30306277772248</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.92854844864477</v>
+        <v>8.012625227002669</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.30763357636553</v>
+        <v>8.6088904877353</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.9050967497682</v>
+        <v>10.19064523124832</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-0.4952047017544956</v>
+        <v>-2.209745117602296</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15.89673567233849</v>
+        <v>0.4347812045202915</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.09231482476868</v>
+        <v>2.14504983253555</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-0.9790770261301347</v>
+        <v>-0.828112926465792</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.53681441025692</v>
+        <v>5.284315663479722</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>15.91778976156979</v>
+        <v>8.37151616182814</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-5.534955287116539</v>
+        <v>-4.093637938219629</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>8.247007294779941</v>
+        <v>-1.28998803698973</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>13.23228070595163</v>
+        <v>3.687949708128711</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>0.9003741494001503</v>
+        <v>-5.099840895119947</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>12.11905136542592</v>
+        <v>8.756684311714411</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.22956487491317</v>
+        <v>13.30854073907235</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.79451203385678</v>
+        <v>7.113147571584518</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21.41812600917818</v>
+        <v>12.05187061082098</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.14299909481637</v>
+        <v>17.00794514069768</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>1.533150648334605</v>
+        <v>-4.430484118536341</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.33893582683273</v>
+        <v>9.224601442148831</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.57775687118333</v>
+        <v>11.29663751365804</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.423824861173593</v>
+        <v>7.10111221417926</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>19.4001166459464</v>
+        <v>21.75350849945023</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.00312912437025</v>
+        <v>25.72680475842331</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>1.870866364651697</v>
+        <v>-1.027521269278171</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.1439005748317</v>
+        <v>11.11376242991026</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.38677037760376</v>
+        <v>14.63754536337737</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>9.266820987817994</v>
+        <v>4.642108034948013</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>20.91354342854828</v>
+        <v>27.32918319404907</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.23312990106489</v>
+        <v>33.13771925845973</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.14040785963124</v>
+        <v>31.91176672111239</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.91642800008347</v>
+        <v>37.62742088369292</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.71383633721506</v>
+        <v>43.94629234867328</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>10.00906385752441</v>
+        <v>4.663405204655088</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.45954180124422</v>
+        <v>30.29478608546414</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.01746169594517</v>
+        <v>34.34704241808569</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-13.23351984150127</v>
+        <v>14.00772093852916</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-0.184296556637797</v>
+        <v>28.32996324785767</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>4.522265040878445</v>
+        <v>34.59597543309913</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-17.35981853593096</v>
+        <v>5.813974319138438</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-3.058681596957605</v>
+        <v>23.68053551491526</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.306079135650407</v>
+        <v>28.78149141840072</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-10.83854372844029</v>
+        <v>16.4537579690362</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>0.8065652505047041</v>
+        <v>39.31005702544964</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>5.236897706887603</v>
+        <v>46.5345274836971</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>4.632624688389747</v>
+        <v>41.58624045753709</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>11.52973940770232</v>
+        <v>44.84625616674175</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>15.38578489463286</v>
+        <v>47.74468540239481</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-9.172350217663073</v>
+        <v>20.45888677869841</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>8.234332518325566</v>
+        <v>33.46634925051877</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>14.98623095769231</v>
+        <v>43.56645736362175</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-10.86579081713456</v>
+        <v>9.268102042911559</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>2.416603225651137</v>
+        <v>25.78855183583187</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.205100495527148</v>
+        <v>34.74846170030433</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-15.48704764540063</v>
+        <v>-1.991016695712048</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-0.8683488250961844</v>
+        <v>11.42518459296707</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>4.573846665534397</v>
+        <v>21.54252306245568</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-8.849230278175462</v>
+        <v>4.018256398771586</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>3.060298298392055</v>
+        <v>29.09522249063044</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>7.555369422376224</v>
+        <v>39.76501382769744</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>6.687955779261436</v>
+        <v>30.02389344089139</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>13.84617929956401</v>
+        <v>38.86776414567975</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>17.85768601405153</v>
+        <v>47.12046013805519</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-6.948086044485585</v>
+        <v>9.029640433655048</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>10.90905308305185</v>
+        <v>37.45863615365828</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.71970006650725</v>
+        <v>43.43885116109665</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-4.158918981286753</v>
+        <v>14.71564079702746</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>9.625620561993578</v>
+        <v>37.1592858326142</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>14.61050019066582</v>
+        <v>47.76867092693536</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-8.774609673123457</v>
+        <v>2.621238348694991</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>6.380034878219178</v>
+        <v>22.63284407963014</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>12.05516149336535</v>
+        <v>31.76035527327133</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-1.218059898909893</v>
+        <v>13.19374684376488</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>11.15849986959181</v>
+        <v>44.56007710571862</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>15.84085797759641</v>
+        <v>57.27201491285209</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>15.36154887508597</v>
+        <v>55.62048533789567</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.70802130220436</v>
+        <v>64.54503058508335</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>26.76144962729121</v>
+        <v>73.49636272702566</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>0.8293821345056074</v>
+        <v>17.39952136226523</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>19.38551505353368</v>
+        <v>54.03871713518332</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.48379377584158</v>
+        <v>64.07581241637608</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>9.338128121283141</v>
+        <v>10.14678613042117</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.55002006228466</v>
+        <v>33.04123923377488</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.1869251481678</v>
+        <v>39.41750231449054</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>6.04740925116127</v>
+        <v>8.4031389945527</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.54723038697975</v>
+        <v>34.10485283030451</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.83937953211995</v>
+        <v>38.94310280401847</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>13.39766038453212</v>
+        <v>19.08890329527205</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.20868930027589</v>
+        <v>49.96465326879618</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.57645900226474</v>
+        <v>57.51988575542394</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.52890803164698</v>
+        <v>51.87595536876429</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.42690608288241</v>
+        <v>58.77724560205755</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>38.20090217216885</v>
+        <v>61.99693801102113</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.822296619106</v>
+        <v>15.12221064633821</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.49496411882453</v>
+        <v>40.90012494268998</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.137612458947</v>
+        <v>50.03634539529688</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>11.32586062216114</v>
+        <v>5.48228739315916</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.75279956490444</v>
+        <v>29.89711572072571</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.45475808984713</v>
+        <v>38.71722115222525</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>7.559487433409025</v>
+        <v>2.648318189745932</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.35609468389667</v>
+        <v>23.45677211700765</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.70542988441051</v>
+        <v>33.66060778948944</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>14.99476943208152</v>
+        <v>8.376398405241924</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.0523629865678</v>
+        <v>40.90038489402507</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.46821907013278</v>
+        <v>51.36170218515442</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.18911314981025</v>
+        <v>40.9493550059138</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36.335655035641</v>
+        <v>52.29376358807347</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.241127835454</v>
+        <v>60.31039337703216</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>14.66709903203016</v>
+        <v>7.588077037220685</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.75963858843997</v>
+        <v>44.00200818671855</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.44160009260843</v>
+        <v>52.89517954575369</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.94789575621593</v>
+        <v>3.603310493702629</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.83232676658473</v>
+        <v>34.46367897333618</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.75840596118974</v>
+        <v>45.55074818470082</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>14.19387700441163</v>
+        <v>-0.142786786718446</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.47742384534904</v>
+        <v>27.75027916068361</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.08812699382679</v>
+        <v>37.6245187986083</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>22.55976582343268</v>
+        <v>10.00807862504904</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.04299399435181</v>
+        <v>49.21931261422709</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>39.67043321498014</v>
+        <v>62.38121610230991</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.80954320081165</v>
+        <v>56.9844187384455</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>45.11141452357621</v>
+        <v>69.81057368565698</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.09228207798733</v>
+        <v>80.3856118944552</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>22.43518225054606</v>
+        <v>8.623877434026255</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.16831282445121</v>
+        <v>55.63337877322905</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>48.17446549104358</v>
+        <v>68.17659987514938</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.71764166720562</v>
+        <v>2.382051623559327</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>42.58517725883597</v>
+        <v>28.54724804957299</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>47.46471415832563</v>
+        <v>35.81352790568661</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.97086345522206</v>
+        <v>3.330250346704869</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>41.17264216536931</v>
+        <v>33.51842021198905</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.74704978060076</v>
+        <v>39.51458317052333</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.65736669097992</v>
+        <v>13.57992891382413</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>47.04116963531492</v>
+        <v>48.66891532923259</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>51.64340415170928</v>
+        <v>56.80250320948723</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>48.37586279474662</v>
+        <v>48.44637211955376</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>55.72208187242398</v>
+        <v>54.72150655568535</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>59.68873254464908</v>
+        <v>58.25715690318026</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>32.71444613974256</v>
+        <v>12.73972366222105</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>51.21293918503366</v>
+        <v>36.7957086203947</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>58.21670372412514</v>
+        <v>50.43229362789755</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>31.04208125367192</v>
+        <v>5.780049399315899</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>45.15368737891146</v>
+        <v>34.2383380635728</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.10878820802556</v>
+        <v>42.75515019597692</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.77707672622157</v>
+        <v>0.5917572799640958</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>43.31175268236348</v>
+        <v>25.93524978006932</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>48.95440160297362</v>
+        <v>35.78188392539469</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>36.58330420123231</v>
+        <v>7.219744551732802</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>49.24396622950155</v>
+        <v>44.64988517144936</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>53.90353079978858</v>
+        <v>54.79238555123407</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>50.39136230203101</v>
+        <v>44.15824186646634</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>58.00900985345446</v>
+        <v>56.85348509491931</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>62.13078378761323</v>
+        <v>65.76087666530903</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.91724163817421</v>
+        <v>11.09737637628199</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>53.88638837299226</v>
+        <v>51.93632637595229</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>60.9382507861257</v>
+        <v>58.83659605584213</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.76125322053443</v>
+        <v>5.329903784199967</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>51.38446550348969</v>
+        <v>38.77115950450818</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>56.5617189919741</v>
+        <v>49.11138021194853</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>33.45539976326476</v>
+        <v>1.137466522127372</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>49.53561957597447</v>
+        <v>32.03413882849593</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>55.44124554336302</v>
+        <v>41.10756033755362</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.16556670013162</v>
+        <v>11.14535991366632</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>56.30175219113362</v>
+        <v>53.89870517628546</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>61.1734900771018</v>
+        <v>66.26737590810211</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>58.12974616330641</v>
+        <v>64.51138713247796</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>65.94203604476199</v>
+        <v>77.22857125844138</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>70.11855574073614</v>
+        <v>86.34443874034547</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>41.75789756239981</v>
+        <v>14.9088882270088</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>61.44181876109419</v>
+        <v>63.8666269330699</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>68.81752648933183</v>
+        <v>74.73385774949173</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>82.21868018258472</v>
+        <v>13.59955491172325</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>97.24614488997284</v>
+        <v>32.27450245643952</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>102.575920550529</v>
+        <v>38.87416107743098</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>80.60132776741466</v>
+        <v>17.56883128104864</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>97.05429417032433</v>
+        <v>40.62146219174428</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>103.1557189510503</v>
+        <v>46.39422680008032</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>92.43943841283907</v>
+        <v>24.26004665069291</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>105.8242277621816</v>
+        <v>51.39636645736905</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>110.8567682647902</v>
+        <v>58.74655546710301</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>103.8592293108609</v>
+        <v>49.75485292120476</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>111.8246399465367</v>
+        <v>53.80946512587834</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>116.1673212343897</v>
+        <v>57.09745000615568</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>85.40475507123303</v>
+        <v>23.49886235634212</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>105.3898670439114</v>
+        <v>38.84296631209207</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>113.0450622111774</v>
+        <v>51.54277653380751</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>84.63447067361948</v>
+        <v>17.21444923591678</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>99.94903000628381</v>
+        <v>38.15535316247916</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>105.3632191826557</v>
+        <v>47.07179703045967</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>82.45268958353532</v>
+        <v>18.18806302229367</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>99.29415956115325</v>
+        <v>36.7370336360844</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>105.471760786867</v>
+        <v>47.19271843353071</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>94.41731869182244</v>
+        <v>19.28076005326963</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>108.1250717957665</v>
+        <v>48.70925024609357</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>113.2215999341008</v>
+        <v>59.14351517376959</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>105.9709051778756</v>
+        <v>47.32369959854368</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>114.2460907759679</v>
+        <v>57.86835630400338</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>118.7613683026058</v>
+        <v>66.65885264044447</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>87.72087645106814</v>
+        <v>21.773150739308</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>108.2527727329441</v>
+        <v>53.67976148629669</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>115.9627162502263</v>
+        <v>60.5469341796308</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>89.82644659395034</v>
+        <v>16.83661784234495</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>105.7392288154418</v>
+        <v>42.09120732217895</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>111.4162066481491</v>
+        <v>52.82746691339039</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>87.50608324870501</v>
+        <v>17.70373826524414</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>104.986616109135</v>
+        <v>41.0585937682329</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>111.4741569139104</v>
+        <v>50.88562454344247</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>100.4645537308127</v>
+        <v>22.52442996008917</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>114.7281149154521</v>
+        <v>56.6310419554102</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>120.0754154931592</v>
+        <v>69.25034076942995</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>113.4099821779255</v>
+        <v>66.47232044206638</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>121.9094695982098</v>
+        <v>76.65738458861227</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>126.4947981144404</v>
+        <v>86.17649672536062</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>94.14974269468237</v>
+        <v>25.32294145843128</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>115.5174637821115</v>
+        <v>63.93923818738935</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>123.6090063703481</v>
+        <v>75.12326341625705</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>23.76418210949527</v>
+        <v>4.634971580582887</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>37.65363122785861</v>
+        <v>28.06683467983325</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.57418141520456</v>
+        <v>34.64463065675795</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.89189872797385</v>
+        <v>3.598780669666338</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.12511192783386</v>
+        <v>29.32489422289531</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>41.74762652718444</v>
+        <v>34.36062905570594</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.3799312489566</v>
+        <v>13.7785178654951</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>41.78822884181198</v>
+        <v>45.83374298115901</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>46.42812589096029</v>
+        <v>53.64329550975938</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>43.33847499905658</v>
+        <v>50.3622608242338</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>50.64306482110627</v>
+        <v>56.95993669001409</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>54.6276389636818</v>
+        <v>58.28274228735354</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>27.55132493371303</v>
+        <v>10.59975446463529</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>46.10900853195012</v>
+        <v>36.40850080187675</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.16090825324948</v>
+        <v>44.87188268098117</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>26.01519508995451</v>
+        <v>4.222325406738904</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.14096107820517</v>
+        <v>29.58107107406235</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>45.13195748749777</v>
+        <v>37.72902514972375</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>22.63468224629638</v>
+        <v>0.3646741336205679</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>38.19212102201566</v>
+        <v>21.92817995463901</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>43.87663771326839</v>
+        <v>31.1354247717989</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.22658693785118</v>
+        <v>6.257893715687164</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>43.90442084696053</v>
+        <v>40.24698228602087</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>48.5965273586144</v>
+        <v>50.19559861888577</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>45.25550025401857</v>
+        <v>41.19200448938174</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>52.82703069512738</v>
+        <v>52.64731120787009</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>56.95606231879142</v>
+        <v>59.7096124843231</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.66186137068529</v>
+        <v>6.318275941118163</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>48.67701550511962</v>
+        <v>44.35862077363305</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>55.77204840756583</v>
+        <v>51.35359835552502</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.27648885550739</v>
+        <v>1.735648197722352</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>46.89300756980769</v>
+        <v>32.18983735283895</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>52.11601238010619</v>
+        <v>42.93524882864976</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.88790715759516</v>
+        <v>-1.66860243524016</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44.96771885197488</v>
+        <v>25.45448043069969</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>50.92446382669269</v>
+        <v>34.66563867138904</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>38.41858067764927</v>
+        <v>7.683317668777665</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>51.55265440833699</v>
+        <v>47.0429802000058</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>56.46486624668437</v>
+        <v>60.00988069826002</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>53.59901772285401</v>
+        <v>58.6333774144976</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>61.34426046065604</v>
+        <v>71.34462994841425</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>65.5443348483858</v>
+        <v>80.28134658088392</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>37.11325355617491</v>
+        <v>8.393035079115627</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>56.81541148522289</v>
+        <v>55.59827182181181</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>64.24719340977941</v>
+        <v>67.14590160904253</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>11.07266309343864</v>
+        <v>3.419732925826281</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>23.8604065748688</v>
+        <v>13.42041417060807</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.4983537061273</v>
+        <v>17.21760869064806</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>7.797549087799069</v>
+        <v>-2.090119041385918</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.81008894231302</v>
+        <v>11.31529110089484</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.09839783996038</v>
+        <v>14.36927586337815</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>15.084881091809</v>
+        <v>4.858576660923216</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.49090078071283</v>
+        <v>22.71392224692029</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.85726405856545</v>
+        <v>27.44537509792885</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.88319409183667</v>
+        <v>24.61464733634184</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>35.64923995857357</v>
+        <v>27.7428718308004</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>39.43645078100247</v>
+        <v>31.13773163097676</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>14.70967215377611</v>
+        <v>4.4302472479916</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.76274680178729</v>
+        <v>14.71020611374759</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.42373573589478</v>
+        <v>20.72653129883064</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.38513116828531</v>
+        <v>8.065782784145854</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.41051879585653</v>
+        <v>22.79157251584775</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.13408733618829</v>
+        <v>33.32111353567493</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>9.632576703474669</v>
+        <v>0.6242168561088803</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>23.96781273957669</v>
+        <v>12.30757158011358</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.337205354392</v>
+        <v>24.37465567040891</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>17.03374409991485</v>
+        <v>4.798081742312023</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.70809769370462</v>
+        <v>27.45027465164986</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.14264903356948</v>
+        <v>39.5887265798062</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.90627008128338</v>
+        <v>29.77267952429971</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>37.93323119771188</v>
+        <v>38.1768680505299</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>41.87718600615955</v>
+        <v>49.90856686841485</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>16.89654837955032</v>
+        <v>5.53071682364545</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>34.40579633806658</v>
+        <v>33.08697535984179</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.13194049275731</v>
+        <v>40.82852376887152</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.47849514734936</v>
+        <v>8.977757147983748</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>33.00197607543282</v>
+        <v>29.87215158097873</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>37.92225828901968</v>
+        <v>41.74005479603397</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>15.69625386292452</v>
+        <v>1.918989469939497</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>30.5628814364573</v>
+        <v>20.28008652644697</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.16457550006663</v>
+        <v>31.40413728796046</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>23.98938424052766</v>
+        <v>8.998051875463407</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.12676573144827</v>
+        <v>38.196836854285</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.74851711222536</v>
+        <v>51.98316363392273</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.92548223106106</v>
+        <v>48.92092394476269</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.13408265255036</v>
+        <v>57.25588464799731</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>50.12308202874524</v>
+        <v>69.45775059712321</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>24.04093423560761</v>
+        <v>9.191975389144094</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>42.24317643170063</v>
+        <v>44.95439733656697</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>49.25678428253266</v>
+        <v>57.03185335071647</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>82.15805152264335</v>
+        <v>5.339075153437815</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>97.12159454163169</v>
+        <v>22.1801759141175</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>102.4483199199361</v>
+        <v>28.90044843542825</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>80.57156740860437</v>
+        <v>5.340184883058887</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>96.95398865006018</v>
+        <v>26.47910629744109</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>103.0515479421599</v>
+        <v>32.39449570018407</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>92.37747235141566</v>
+        <v>12.62426410676406</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>105.7033580710197</v>
+        <v>37.81699056756032</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>110.7324207160695</v>
+        <v>45.30014989688861</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>103.7744787172158</v>
+        <v>37.2172260354727</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>111.7061367534801</v>
+        <v>40.74061024706933</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>116.0462019048449</v>
+        <v>44.77075139723257</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>85.37504313447285</v>
+        <v>13.17986713466896</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>105.2768712775577</v>
+        <v>27.47906978676049</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>112.9272605707887</v>
+        <v>40.10097861401789</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>84.51742136936154</v>
+        <v>6.036223667864244</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>99.76720270022201</v>
+        <v>25.02909419373323</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>105.1804070919843</v>
+        <v>35.37125696963979</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>82.36409473937314</v>
+        <v>3.364150895799492</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>99.13412041353186</v>
+        <v>19.93171226979192</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>105.3102168784698</v>
+        <v>31.80096314010093</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>94.29330363820446</v>
+        <v>5.279448376101909</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>107.9414505694136</v>
+        <v>32.64601200569189</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>113.0365068980172</v>
+        <v>44.52605010759756</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>105.8227056299718</v>
+        <v>32.34296841168448</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>114.0635237744486</v>
+        <v>42.26280960126557</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>118.5783377742821</v>
+        <v>52.47959361500051</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>87.62761706441447</v>
+        <v>8.215717517004448</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>108.0753025485136</v>
+        <v>38.69327346996694</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>115.7830638690624</v>
+        <v>46.88568918478287</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>89.70497447711713</v>
+        <v>4.614757222828594</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>105.5538254059657</v>
+        <v>28.07086005418043</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>111.2276697006198</v>
+        <v>40.07805397323543</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>87.41253230913225</v>
+        <v>1.583760441983742</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>104.8225435791202</v>
+        <v>23.1372359846508</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>111.3062534701818</v>
+        <v>34.20204382792748</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>100.3342282778712</v>
+        <v>7.138051987065403</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>114.5388665988145</v>
+        <v>39.34145548395816</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>119.8827207398405</v>
+        <v>53.24752886715297</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>113.2549280469676</v>
+        <v>49.99309845020808</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>121.7200395630382</v>
+        <v>59.49417504550092</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>126.3031043936461</v>
+        <v>70.41692839624459</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>94.04901250750767</v>
+        <v>10.42515371086808</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>115.3331650734278</v>
+        <v>47.45424770737412</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>123.4195595966632</v>
+        <v>59.97782976990545</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>14.41122777191979</v>
+        <v>9.191528195066009</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.58762491037987</v>
+        <v>32.75181315050794</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>32.21332454427498</v>
+        <v>37.04009780884528</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>11.34565971197397</v>
+        <v>11.66622687328503</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.76900433475144</v>
+        <v>40.83615877466891</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.05079061370409</v>
+        <v>43.91306772275225</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>18.89595338772784</v>
+        <v>23.61606759417207</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>30.6507200344555</v>
+        <v>55.40206209372354</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>35.01049202411858</v>
+        <v>60.42893856703944</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.77838795329625</v>
+        <v>58.65766817428608</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>39.70921532117869</v>
+        <v>62.81536446296291</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>43.46828155364915</v>
+        <v>64.42870837027104</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>18.218155266095</v>
+        <v>22.02329354429284</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>35.77027618154281</v>
+        <v>42.25163379250883</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>42.43934735242423</v>
+        <v>54.26539091141566</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>16.56215041980006</v>
+        <v>9.922940844307629</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.96320950604501</v>
+        <v>36.31192824074885</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.65508260545597</v>
+        <v>40.79414255902716</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.00505336668494</v>
+        <v>5.68238874519278</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.73661012539798</v>
+        <v>30.68747974976335</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.07727908303742</v>
+        <v>36.62361466242213</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.66672237477069</v>
+        <v>13.82212449590869</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>32.67754703691621</v>
+        <v>48.57490921839618</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.08674841458236</v>
+        <v>54.46215594839541</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>34.63461139172458</v>
+        <v>49.91155842748137</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>41.82018022754368</v>
+        <v>58.60099514829</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>45.72102609588309</v>
+        <v>63.69530042712148</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>20.26180254238013</v>
+        <v>16.92928977083864</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.2517797703016</v>
+        <v>52.25891641970324</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>44.95763173092845</v>
+        <v>56.96069315636302</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.40830698624177</v>
+        <v>7.933930087838327</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>36.29004529083217</v>
+        <v>39.29210772778058</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>41.18548248617803</v>
+        <v>45.80898068047583</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>18.81673171838814</v>
+        <v>3.561020956909928</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.061580719089</v>
+        <v>34.02073030081388</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.64337700772553</v>
+        <v>39.50269921446194</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>27.35332172725833</v>
+        <v>15.7253056980104</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>39.81161594866234</v>
+        <v>55.74779674309775</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>44.4145093396599</v>
+        <v>64.05522340996504</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>42.38499455550787</v>
+        <v>67.09530748280569</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>49.74515687000984</v>
+        <v>75.74574346131786</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>53.70416270997268</v>
+        <v>81.94213289326177</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>27.15200086893143</v>
+        <v>16.95593280641194</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>45.81534467620743</v>
+        <v>61.19475961515613</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>52.81779125581733</v>
+        <v>69.86765775795267</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>17.66708336859166</v>
+        <v>3.543003491284278</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>31.49746872064824</v>
+        <v>28.60974405253231</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>36.3826281729328</v>
+        <v>34.01951207567769</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>14.62969923960669</v>
+        <v>3.266286704972277</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.79791473452142</v>
+        <v>30.87434123980945</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>35.38155332497814</v>
+        <v>34.79916524705457</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>22.81623250247951</v>
+        <v>13.30445663992339</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>35.175253377334</v>
+        <v>46.97295507854456</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>39.78240892703356</v>
+        <v>53.58425514037378</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>37.10237862037818</v>
+        <v>50.96100855338816</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>44.3952739151087</v>
+        <v>57.34440566664324</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>48.34464091757875</v>
+        <v>58.78228810656849</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>21.57419281903771</v>
+        <v>9.978470420817615</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>40.05881779805215</v>
+        <v>37.01847749127143</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>47.06101357512757</v>
+        <v>44.50833536429973</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>19.96496694946406</v>
+        <v>4.953297636102764</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>34.03001230348751</v>
+        <v>31.81754731248324</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>38.98454919351278</v>
+        <v>39.29662523708254</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>16.42300973875609</v>
+        <v>1.455671073607444</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>31.91317787610992</v>
+        <v>24.52215668941252</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>37.55743760126542</v>
+        <v>33.14238208032579</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>24.71856729488383</v>
+        <v>7.970975963872181</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>37.34521890236122</v>
+        <v>43.46980561024932</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>42.00345623524185</v>
+        <v>52.74348053096162</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>39.07245193027575</v>
+        <v>43.93950401773211</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>46.63124368288288</v>
+        <v>55.10622813525749</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>50.72340459757789</v>
+        <v>62.75167165739174</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>23.7358611886839</v>
+        <v>7.903712921323628</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>42.67525189288733</v>
+        <v>47.60587586403627</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>49.71847354935026</v>
+        <v>53.54685089500904</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>26.17900550311498</v>
+        <v>1.950608959938616</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>40.72587217041552</v>
+        <v>32.55535717433751</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>45.90982944602597</v>
+        <v>43.28088632575678</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>22.63442066621104</v>
+        <v>-2.656813648522331</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>38.63728011930627</v>
+        <v>24.61636430129489</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>44.55153254734697</v>
+        <v>33.8602292234186</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>31.8522272010376</v>
+        <v>7.256242385533579</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>44.92679416437218</v>
+        <v>46.77219506851464</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.80337538227007</v>
+        <v>59.71201420141813</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>47.33712347306385</v>
+        <v>58.24933460150611</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>55.06656342233381</v>
+        <v>69.6195690290039</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>59.22982054645549</v>
+        <v>79.43579868441282</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>31.12024896457287</v>
+        <v>7.332625682733369</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>50.73356647211426</v>
+        <v>54.43336269176828</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>58.11109049719883</v>
+        <v>65.80883003643646</v>
       </c>
     </row>
   </sheetData>
